--- a/notebooks/step04_FUHistory.xlsx
+++ b/notebooks/step04_FUHistory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Python_Madness_2023\notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Python_Madness_2024\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C121F844-4340-4D5F-B2BA-CE5049C83892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A65200E-7F54-4108-A841-AF645EAE3F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">step04_FUHistory!$A$1:$L$2422</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7638" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7729" uniqueCount="382">
   <si>
     <t>Year</t>
   </si>
@@ -2025,26 +2036,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2422"/>
+  <dimension ref="A1:L2453"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1010" sqref="B1010:B2390"/>
+    <sheetView tabSelected="1" topLeftCell="A2414" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L2453" sqref="L2453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -92747,7 +92758,7 @@
         <v>71</v>
       </c>
       <c r="K2387">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L2387">
         <v>65</v>
@@ -92785,10 +92796,10 @@
         <v>60</v>
       </c>
       <c r="K2388">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="L2388">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2389" spans="1:12" x14ac:dyDescent="0.25">
@@ -92823,10 +92834,10 @@
         <v>84</v>
       </c>
       <c r="K2389">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="L2389">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2390" spans="1:12" x14ac:dyDescent="0.25">
@@ -92861,7 +92872,7 @@
         <v>73</v>
       </c>
       <c r="K2390">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="L2390">
         <v>65</v>
@@ -92887,7 +92898,7 @@
         <v>25</v>
       </c>
       <c r="G2391">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H2391">
         <v>16</v>
@@ -92896,7 +92907,7 @@
         <v>284</v>
       </c>
       <c r="J2391">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K2391">
         <v>1</v>
@@ -92925,7 +92936,7 @@
         <v>68</v>
       </c>
       <c r="G2392">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H2392">
         <v>9</v>
@@ -92934,7 +92945,7 @@
         <v>97</v>
       </c>
       <c r="J2392">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K2392">
         <v>3</v>
@@ -92963,7 +92974,7 @@
         <v>20</v>
       </c>
       <c r="G2393">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H2393">
         <v>12</v>
@@ -92972,7 +92983,7 @@
         <v>234</v>
       </c>
       <c r="J2393">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K2393">
         <v>5</v>
@@ -93001,7 +93012,7 @@
         <v>98</v>
       </c>
       <c r="G2394">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H2394">
         <v>13</v>
@@ -93010,7 +93021,7 @@
         <v>329</v>
       </c>
       <c r="J2394">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K2394">
         <v>7</v>
@@ -93048,7 +93059,7 @@
         <v>23</v>
       </c>
       <c r="J2395">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K2395">
         <v>9</v>
@@ -93077,7 +93088,7 @@
         <v>126</v>
       </c>
       <c r="G2396">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H2396">
         <v>14</v>
@@ -93086,7 +93097,7 @@
         <v>143</v>
       </c>
       <c r="J2396">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="K2396">
         <v>11</v>
@@ -93115,7 +93126,7 @@
         <v>91</v>
       </c>
       <c r="G2397">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H2397">
         <v>10</v>
@@ -93124,7 +93135,7 @@
         <v>130</v>
       </c>
       <c r="J2397">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K2397">
         <v>13</v>
@@ -93153,7 +93164,7 @@
         <v>26</v>
       </c>
       <c r="G2398">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H2398">
         <v>15</v>
@@ -93162,7 +93173,7 @@
         <v>150</v>
       </c>
       <c r="J2398">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K2398">
         <v>15</v>
@@ -93191,7 +93202,7 @@
         <v>72</v>
       </c>
       <c r="G2399">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H2399">
         <v>16</v>
@@ -93200,7 +93211,7 @@
         <v>65</v>
       </c>
       <c r="J2399">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K2399">
         <v>17</v>
@@ -93229,7 +93240,7 @@
         <v>61</v>
       </c>
       <c r="G2400">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H2400">
         <v>9</v>
@@ -93238,7 +93249,7 @@
         <v>265</v>
       </c>
       <c r="J2400">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K2400">
         <v>19</v>
@@ -93267,7 +93278,7 @@
         <v>57</v>
       </c>
       <c r="G2401">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H2401">
         <v>12</v>
@@ -93276,7 +93287,7 @@
         <v>281</v>
       </c>
       <c r="J2401">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="K2401">
         <v>21</v>
@@ -93305,7 +93316,7 @@
         <v>156</v>
       </c>
       <c r="G2402">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H2402">
         <v>13</v>
@@ -93314,7 +93325,7 @@
         <v>192</v>
       </c>
       <c r="J2402">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="K2402">
         <v>23</v>
@@ -93343,7 +93354,7 @@
         <v>18</v>
       </c>
       <c r="G2403">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="H2403">
         <v>11</v>
@@ -93352,7 +93363,7 @@
         <v>119</v>
       </c>
       <c r="J2403">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K2403">
         <v>25</v>
@@ -93381,7 +93392,7 @@
         <v>108</v>
       </c>
       <c r="G2404">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H2404">
         <v>14</v>
@@ -93390,7 +93401,7 @@
         <v>89</v>
       </c>
       <c r="J2404">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K2404">
         <v>27</v>
@@ -93428,7 +93439,7 @@
         <v>49</v>
       </c>
       <c r="J2405">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K2405">
         <v>29</v>
@@ -93457,7 +93468,7 @@
         <v>202</v>
       </c>
       <c r="G2406">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H2406">
         <v>15</v>
@@ -93466,7 +93477,7 @@
         <v>269</v>
       </c>
       <c r="J2406">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="K2406">
         <v>31</v>
@@ -93495,7 +93506,7 @@
         <v>116</v>
       </c>
       <c r="G2407">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H2407">
         <v>16</v>
@@ -93504,7 +93515,7 @@
         <v>315</v>
       </c>
       <c r="J2407">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K2407">
         <v>33</v>
@@ -93533,7 +93544,7 @@
         <v>15</v>
       </c>
       <c r="G2408">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H2408">
         <v>9</v>
@@ -93542,7 +93553,7 @@
         <v>73</v>
       </c>
       <c r="J2408">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K2408">
         <v>35</v>
@@ -93571,7 +93582,7 @@
         <v>242</v>
       </c>
       <c r="G2409">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H2409">
         <v>12</v>
@@ -93580,7 +93591,7 @@
         <v>290</v>
       </c>
       <c r="J2409">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="K2409">
         <v>37</v>
@@ -93609,7 +93620,7 @@
         <v>101</v>
       </c>
       <c r="G2410">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2410">
         <v>13</v>
@@ -93618,7 +93629,7 @@
         <v>244</v>
       </c>
       <c r="J2410">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K2410">
         <v>39</v>
@@ -93647,7 +93658,7 @@
         <v>54</v>
       </c>
       <c r="G2411">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="H2411">
         <v>11</v>
@@ -93656,7 +93667,7 @@
         <v>52</v>
       </c>
       <c r="J2411">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K2411">
         <v>41</v>
@@ -93694,7 +93705,7 @@
         <v>324</v>
       </c>
       <c r="J2412">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K2412">
         <v>43</v>
@@ -93723,7 +93734,7 @@
         <v>114</v>
       </c>
       <c r="G2413">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H2413">
         <v>10</v>
@@ -93732,7 +93743,7 @@
         <v>178</v>
       </c>
       <c r="J2413">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K2413">
         <v>45</v>
@@ -93761,7 +93772,7 @@
         <v>145</v>
       </c>
       <c r="G2414">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H2414">
         <v>15</v>
@@ -93770,7 +93781,7 @@
         <v>214</v>
       </c>
       <c r="J2414">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="K2414">
         <v>47</v>
@@ -93799,7 +93810,7 @@
         <v>74</v>
       </c>
       <c r="G2415">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H2415">
         <v>16</v>
@@ -93808,7 +93819,7 @@
         <v>185</v>
       </c>
       <c r="J2415">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K2415">
         <v>49</v>
@@ -93837,7 +93848,7 @@
         <v>16</v>
       </c>
       <c r="G2416">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2416">
         <v>9</v>
@@ -93846,7 +93857,7 @@
         <v>40</v>
       </c>
       <c r="J2416">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K2416">
         <v>51</v>
@@ -93875,7 +93886,7 @@
         <v>159</v>
       </c>
       <c r="G2417">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H2417">
         <v>12</v>
@@ -93884,7 +93895,7 @@
         <v>27</v>
       </c>
       <c r="J2417">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="K2417">
         <v>53</v>
@@ -93913,7 +93924,7 @@
         <v>167</v>
       </c>
       <c r="G2418">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H2418">
         <v>13</v>
@@ -93922,7 +93933,7 @@
         <v>37</v>
       </c>
       <c r="J2418">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K2418">
         <v>55</v>
@@ -93960,7 +93971,7 @@
         <v>182</v>
       </c>
       <c r="J2419">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K2419">
         <v>57</v>
@@ -93989,7 +94000,7 @@
         <v>220</v>
       </c>
       <c r="G2420">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H2420">
         <v>14</v>
@@ -93998,7 +94009,7 @@
         <v>319</v>
       </c>
       <c r="J2420">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K2420">
         <v>59</v>
@@ -94027,7 +94038,7 @@
         <v>312</v>
       </c>
       <c r="G2421">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H2421">
         <v>10</v>
@@ -94036,7 +94047,7 @@
         <v>137</v>
       </c>
       <c r="J2421">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K2421">
         <v>61</v>
@@ -94065,7 +94076,7 @@
         <v>110</v>
       </c>
       <c r="G2422">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H2422">
         <v>15</v>
@@ -94074,13 +94085,1155 @@
         <v>266</v>
       </c>
       <c r="J2422">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K2422">
         <v>63</v>
       </c>
       <c r="L2422">
         <v>64</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2423">
+        <v>2023</v>
+      </c>
+      <c r="B2423">
+        <v>2</v>
+      </c>
+      <c r="C2423" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2423">
+        <v>33</v>
+      </c>
+      <c r="E2423">
+        <v>1</v>
+      </c>
+      <c r="F2423" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2423">
+        <v>73</v>
+      </c>
+      <c r="H2423">
+        <v>8</v>
+      </c>
+      <c r="I2423" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2423">
+        <v>51</v>
+      </c>
+      <c r="K2423">
+        <v>1</v>
+      </c>
+      <c r="L2423">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2424">
+        <v>2023</v>
+      </c>
+      <c r="B2424">
+        <v>2</v>
+      </c>
+      <c r="C2424" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2424">
+        <v>34</v>
+      </c>
+      <c r="E2424">
+        <v>5</v>
+      </c>
+      <c r="F2424" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2424">
+        <v>75</v>
+      </c>
+      <c r="H2424">
+        <v>13</v>
+      </c>
+      <c r="I2424" t="s">
+        <v>329</v>
+      </c>
+      <c r="J2424">
+        <v>52</v>
+      </c>
+      <c r="K2424">
+        <v>5</v>
+      </c>
+      <c r="L2424">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2425">
+        <v>2023</v>
+      </c>
+      <c r="B2425">
+        <v>2</v>
+      </c>
+      <c r="C2425" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2425">
+        <v>35</v>
+      </c>
+      <c r="E2425">
+        <v>3</v>
+      </c>
+      <c r="F2425" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2425">
+        <v>76</v>
+      </c>
+      <c r="H2425">
+        <v>6</v>
+      </c>
+      <c r="I2425" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2425">
+        <v>85</v>
+      </c>
+      <c r="K2425">
+        <v>11</v>
+      </c>
+      <c r="L2425">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2426">
+        <v>2023</v>
+      </c>
+      <c r="B2426">
+        <v>2</v>
+      </c>
+      <c r="C2426" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2426">
+        <v>36</v>
+      </c>
+      <c r="E2426">
+        <v>7</v>
+      </c>
+      <c r="F2426" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2426">
+        <v>63</v>
+      </c>
+      <c r="H2426">
+        <v>15</v>
+      </c>
+      <c r="I2426" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2426">
+        <v>78</v>
+      </c>
+      <c r="K2426">
+        <v>13</v>
+      </c>
+      <c r="L2426">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2427">
+        <v>2023</v>
+      </c>
+      <c r="B2427">
+        <v>2</v>
+      </c>
+      <c r="C2427" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2427">
+        <v>37</v>
+      </c>
+      <c r="E2427">
+        <v>9</v>
+      </c>
+      <c r="F2427" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2427">
+        <v>78</v>
+      </c>
+      <c r="H2427">
+        <v>9</v>
+      </c>
+      <c r="I2427" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2427">
+        <v>70</v>
+      </c>
+      <c r="K2427">
+        <v>20</v>
+      </c>
+      <c r="L2427">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2428">
+        <v>2023</v>
+      </c>
+      <c r="B2428">
+        <v>2</v>
+      </c>
+      <c r="C2428" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2428">
+        <v>38</v>
+      </c>
+      <c r="E2428">
+        <v>4</v>
+      </c>
+      <c r="F2428" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2428">
+        <v>65</v>
+      </c>
+      <c r="H2428">
+        <v>5</v>
+      </c>
+      <c r="I2428" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2428">
+        <v>52</v>
+      </c>
+      <c r="K2428">
+        <v>23</v>
+      </c>
+      <c r="L2428">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2429">
+        <v>2023</v>
+      </c>
+      <c r="B2429">
+        <v>2</v>
+      </c>
+      <c r="C2429" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2429">
+        <v>39</v>
+      </c>
+      <c r="E2429">
+        <v>3</v>
+      </c>
+      <c r="F2429" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2429">
+        <v>75</v>
+      </c>
+      <c r="H2429">
+        <v>6</v>
+      </c>
+      <c r="I2429" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2429">
+        <v>69</v>
+      </c>
+      <c r="K2429">
+        <v>27</v>
+      </c>
+      <c r="L2429">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2430">
+        <v>2023</v>
+      </c>
+      <c r="B2430">
+        <v>2</v>
+      </c>
+      <c r="C2430" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2430">
+        <v>40</v>
+      </c>
+      <c r="E2430">
+        <v>2</v>
+      </c>
+      <c r="F2430" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2430">
+        <v>60</v>
+      </c>
+      <c r="H2430">
+        <v>7</v>
+      </c>
+      <c r="I2430" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2430">
+        <v>69</v>
+      </c>
+      <c r="K2430">
+        <v>31</v>
+      </c>
+      <c r="L2430">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2431">
+        <v>2023</v>
+      </c>
+      <c r="B2431">
+        <v>2</v>
+      </c>
+      <c r="C2431" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2431">
+        <v>41</v>
+      </c>
+      <c r="E2431">
+        <v>1</v>
+      </c>
+      <c r="F2431" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2431">
+        <v>81</v>
+      </c>
+      <c r="H2431">
+        <v>9</v>
+      </c>
+      <c r="I2431" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2431">
+        <v>64</v>
+      </c>
+      <c r="K2431">
+        <v>33</v>
+      </c>
+      <c r="L2431">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2432">
+        <v>2023</v>
+      </c>
+      <c r="B2432">
+        <v>2</v>
+      </c>
+      <c r="C2432" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2432">
+        <v>42</v>
+      </c>
+      <c r="E2432">
+        <v>4</v>
+      </c>
+      <c r="F2432" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2432">
+        <v>69</v>
+      </c>
+      <c r="H2432">
+        <v>5</v>
+      </c>
+      <c r="I2432" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2432">
+        <v>85</v>
+      </c>
+      <c r="K2432">
+        <v>39</v>
+      </c>
+      <c r="L2432">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2433">
+        <v>2023</v>
+      </c>
+      <c r="B2433">
+        <v>2</v>
+      </c>
+      <c r="C2433" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2433">
+        <v>43</v>
+      </c>
+      <c r="E2433">
+        <v>3</v>
+      </c>
+      <c r="F2433" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2433">
+        <v>84</v>
+      </c>
+      <c r="H2433">
+        <v>11</v>
+      </c>
+      <c r="I2433" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2433">
+        <v>73</v>
+      </c>
+      <c r="K2433">
+        <v>43</v>
+      </c>
+      <c r="L2433">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2434">
+        <v>2023</v>
+      </c>
+      <c r="B2434">
+        <v>2</v>
+      </c>
+      <c r="C2434" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2434">
+        <v>44</v>
+      </c>
+      <c r="E2434">
+        <v>2</v>
+      </c>
+      <c r="F2434" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2434">
+        <v>71</v>
+      </c>
+      <c r="H2434">
+        <v>10</v>
+      </c>
+      <c r="I2434" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2434">
+        <v>66</v>
+      </c>
+      <c r="K2434">
+        <v>47</v>
+      </c>
+      <c r="L2434">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2435">
+        <v>2023</v>
+      </c>
+      <c r="B2435">
+        <v>2</v>
+      </c>
+      <c r="C2435" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2435">
+        <v>45</v>
+      </c>
+      <c r="E2435">
+        <v>1</v>
+      </c>
+      <c r="F2435" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2435">
+        <v>71</v>
+      </c>
+      <c r="H2435">
+        <v>8</v>
+      </c>
+      <c r="I2435" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2435">
+        <v>72</v>
+      </c>
+      <c r="K2435">
+        <v>49</v>
+      </c>
+      <c r="L2435">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2436">
+        <v>2023</v>
+      </c>
+      <c r="B2436">
+        <v>2</v>
+      </c>
+      <c r="C2436" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2436">
+        <v>46</v>
+      </c>
+      <c r="E2436">
+        <v>4</v>
+      </c>
+      <c r="F2436" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2436">
+        <v>70</v>
+      </c>
+      <c r="H2436">
+        <v>5</v>
+      </c>
+      <c r="I2436" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2436">
+        <v>55</v>
+      </c>
+      <c r="K2436">
+        <v>55</v>
+      </c>
+      <c r="L2436">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2437">
+        <v>2023</v>
+      </c>
+      <c r="B2437">
+        <v>2</v>
+      </c>
+      <c r="C2437" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2437">
+        <v>47</v>
+      </c>
+      <c r="E2437">
+        <v>3</v>
+      </c>
+      <c r="F2437" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2437">
+        <v>84</v>
+      </c>
+      <c r="H2437">
+        <v>6</v>
+      </c>
+      <c r="I2437" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2437">
+        <v>81</v>
+      </c>
+      <c r="K2437">
+        <v>59</v>
+      </c>
+      <c r="L2437">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2438">
+        <v>2023</v>
+      </c>
+      <c r="B2438">
+        <v>2</v>
+      </c>
+      <c r="C2438" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2438">
+        <v>48</v>
+      </c>
+      <c r="E2438">
+        <v>2</v>
+      </c>
+      <c r="F2438" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2438">
+        <v>68</v>
+      </c>
+      <c r="H2438">
+        <v>7</v>
+      </c>
+      <c r="I2438" t="s">
+        <v>312</v>
+      </c>
+      <c r="J2438">
+        <v>63</v>
+      </c>
+      <c r="K2438">
+        <v>63</v>
+      </c>
+      <c r="L2438">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2439">
+        <v>2023</v>
+      </c>
+      <c r="B2439">
+        <v>3</v>
+      </c>
+      <c r="C2439" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2439">
+        <v>49</v>
+      </c>
+      <c r="E2439">
+        <v>1</v>
+      </c>
+      <c r="F2439" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2439">
+        <v>64</v>
+      </c>
+      <c r="H2439">
+        <v>5</v>
+      </c>
+      <c r="I2439" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2439">
+        <v>71</v>
+      </c>
+      <c r="K2439">
+        <v>1</v>
+      </c>
+      <c r="L2439">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2440">
+        <v>2023</v>
+      </c>
+      <c r="B2440">
+        <v>3</v>
+      </c>
+      <c r="C2440" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2440">
+        <v>50</v>
+      </c>
+      <c r="E2440">
+        <v>6</v>
+      </c>
+      <c r="F2440" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2440">
+        <v>86</v>
+      </c>
+      <c r="H2440">
+        <v>15</v>
+      </c>
+      <c r="I2440" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2440">
+        <v>75</v>
+      </c>
+      <c r="K2440">
+        <v>9</v>
+      </c>
+      <c r="L2440">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2441">
+        <v>2023</v>
+      </c>
+      <c r="B2441">
+        <v>3</v>
+      </c>
+      <c r="C2441" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2441">
+        <v>51</v>
+      </c>
+      <c r="E2441">
+        <v>4</v>
+      </c>
+      <c r="F2441" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2441">
+        <v>55</v>
+      </c>
+      <c r="H2441">
+        <v>9</v>
+      </c>
+      <c r="I2441" t="s">
+        <v>265</v>
+      </c>
+      <c r="J2441">
+        <v>62</v>
+      </c>
+      <c r="K2441">
+        <v>23</v>
+      </c>
+      <c r="L2441">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2442">
+        <v>2023</v>
+      </c>
+      <c r="B2442">
+        <v>3</v>
+      </c>
+      <c r="C2442" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2442">
+        <v>52</v>
+      </c>
+      <c r="E2442">
+        <v>3</v>
+      </c>
+      <c r="F2442" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2442">
+        <v>93</v>
+      </c>
+      <c r="H2442">
+        <v>7</v>
+      </c>
+      <c r="I2442" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2442">
+        <v>93</v>
+      </c>
+      <c r="K2442">
+        <v>27</v>
+      </c>
+      <c r="L2442">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2443">
+        <v>2023</v>
+      </c>
+      <c r="B2443">
+        <v>3</v>
+      </c>
+      <c r="C2443" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2443">
+        <v>53</v>
+      </c>
+      <c r="E2443">
+        <v>1</v>
+      </c>
+      <c r="F2443" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2443">
+        <v>75</v>
+      </c>
+      <c r="H2443">
+        <v>5</v>
+      </c>
+      <c r="I2443" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2443">
+        <v>89</v>
+      </c>
+      <c r="K2443">
+        <v>33</v>
+      </c>
+      <c r="L2443">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2444">
+        <v>2023</v>
+      </c>
+      <c r="B2444">
+        <v>3</v>
+      </c>
+      <c r="C2444" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2444">
+        <v>54</v>
+      </c>
+      <c r="E2444">
+        <v>2</v>
+      </c>
+      <c r="F2444" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2444">
+        <v>83</v>
+      </c>
+      <c r="H2444">
+        <v>3</v>
+      </c>
+      <c r="I2444" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2444">
+        <v>71</v>
+      </c>
+      <c r="K2444">
+        <v>47</v>
+      </c>
+      <c r="L2444">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2445">
+        <v>2023</v>
+      </c>
+      <c r="B2445">
+        <v>3</v>
+      </c>
+      <c r="C2445" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2445">
+        <v>55</v>
+      </c>
+      <c r="E2445">
+        <v>4</v>
+      </c>
+      <c r="F2445" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2445">
+        <v>88</v>
+      </c>
+      <c r="H2445">
+        <v>8</v>
+      </c>
+      <c r="I2445" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2445">
+        <v>65</v>
+      </c>
+      <c r="K2445">
+        <v>55</v>
+      </c>
+      <c r="L2445">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2446">
+        <v>2023</v>
+      </c>
+      <c r="B2446">
+        <v>3</v>
+      </c>
+      <c r="C2446" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2446">
+        <v>56</v>
+      </c>
+      <c r="E2446">
+        <v>2</v>
+      </c>
+      <c r="F2446" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2446">
+        <v>76</v>
+      </c>
+      <c r="H2446">
+        <v>3</v>
+      </c>
+      <c r="I2446" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2446">
+        <v>79</v>
+      </c>
+      <c r="K2446">
+        <v>63</v>
+      </c>
+      <c r="L2446">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2447">
+        <v>2023</v>
+      </c>
+      <c r="B2447">
+        <v>4</v>
+      </c>
+      <c r="C2447" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2447">
+        <v>57</v>
+      </c>
+      <c r="E2447">
+        <v>5</v>
+      </c>
+      <c r="F2447" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2447">
+        <v>57</v>
+      </c>
+      <c r="H2447">
+        <v>6</v>
+      </c>
+      <c r="I2447" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2447">
+        <v>56</v>
+      </c>
+      <c r="K2447">
+        <v>5</v>
+      </c>
+      <c r="L2447">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2448">
+        <v>2023</v>
+      </c>
+      <c r="B2448">
+        <v>4</v>
+      </c>
+      <c r="C2448" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2448">
+        <v>58</v>
+      </c>
+      <c r="E2448">
+        <v>3</v>
+      </c>
+      <c r="F2448" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2448">
+        <v>76</v>
+      </c>
+      <c r="H2448">
+        <v>9</v>
+      </c>
+      <c r="I2448" t="s">
+        <v>265</v>
+      </c>
+      <c r="J2448">
+        <v>79</v>
+      </c>
+      <c r="K2448">
+        <v>27</v>
+      </c>
+      <c r="L2448">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2449">
+        <v>2023</v>
+      </c>
+      <c r="B2449">
+        <v>4</v>
+      </c>
+      <c r="C2449" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2449">
+        <v>59</v>
+      </c>
+      <c r="E2449">
+        <v>2</v>
+      </c>
+      <c r="F2449" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2449">
+        <v>81</v>
+      </c>
+      <c r="H2449">
+        <v>5</v>
+      </c>
+      <c r="I2449" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2449">
+        <v>88</v>
+      </c>
+      <c r="K2449">
+        <v>47</v>
+      </c>
+      <c r="L2449">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2450">
+        <v>2023</v>
+      </c>
+      <c r="B2450">
+        <v>4</v>
+      </c>
+      <c r="C2450" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2450">
+        <v>60</v>
+      </c>
+      <c r="E2450">
+        <v>3</v>
+      </c>
+      <c r="F2450" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2450">
+        <v>54</v>
+      </c>
+      <c r="H2450">
+        <v>4</v>
+      </c>
+      <c r="I2450" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2450">
+        <v>82</v>
+      </c>
+      <c r="K2450">
+        <v>59</v>
+      </c>
+      <c r="L2450">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2451">
+        <v>2023</v>
+      </c>
+      <c r="B2451">
+        <v>5</v>
+      </c>
+      <c r="C2451" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2451">
+        <v>61</v>
+      </c>
+      <c r="E2451">
+        <v>5</v>
+      </c>
+      <c r="F2451" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2451">
+        <v>9</v>
+      </c>
+      <c r="I2451" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2451">
+        <v>5</v>
+      </c>
+      <c r="L2451">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2452">
+        <v>2023</v>
+      </c>
+      <c r="B2452">
+        <v>5</v>
+      </c>
+      <c r="C2452" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2452">
+        <v>62</v>
+      </c>
+      <c r="E2452">
+        <v>4</v>
+      </c>
+      <c r="F2452" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2452">
+        <v>5</v>
+      </c>
+      <c r="I2452" t="s">
+        <v>242</v>
+      </c>
+      <c r="K2452">
+        <v>55</v>
+      </c>
+      <c r="L2452">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2453">
+        <v>2023</v>
+      </c>
+      <c r="B2453">
+        <v>6</v>
+      </c>
+      <c r="C2453" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2453">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -94101,7 +95254,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F2387:F2422</xm:sqref>
+          <xm:sqref>G2402:G2450 F2387:F2452 H2423:H2452</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{D07094E1-B944-47E4-9ABF-B2075BEB07DF}">
@@ -94114,7 +95267,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I2387:I2422</xm:sqref>
+          <xm:sqref>J2402:J2450 I2387:I2452</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/notebooks/step04_FUHistory.xlsx
+++ b/notebooks/step04_FUHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Python_Madness_2024\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A65200E-7F54-4108-A841-AF645EAE3F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7C8703-9E63-4CF3-A5AB-EB09C3F5DDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2038,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2414" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L2453" sqref="L2453"/>
+    <sheetView tabSelected="1" topLeftCell="A2393" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H2428" sqref="H2428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -94269,7 +94269,7 @@
         <v>78</v>
       </c>
       <c r="H2427">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I2427" t="s">
         <v>65</v>

--- a/notebooks/step04_FUHistory.xlsx
+++ b/notebooks/step04_FUHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Python_Madness_2024\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7C8703-9E63-4CF3-A5AB-EB09C3F5DDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6029D7D-C266-4753-AAF2-A864AF27B5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="2625" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="step04_FUHistory" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7729" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7731" uniqueCount="382">
   <si>
     <t>Year</t>
   </si>
@@ -2038,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2393" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H2428" sqref="H2428"/>
+    <sheetView tabSelected="1" topLeftCell="A2438" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M2453" sqref="M2453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -95177,11 +95177,17 @@
       <c r="F2451" t="s">
         <v>20</v>
       </c>
+      <c r="G2451">
+        <v>72</v>
+      </c>
       <c r="H2451">
         <v>9</v>
       </c>
       <c r="I2451" t="s">
         <v>265</v>
+      </c>
+      <c r="J2451">
+        <v>71</v>
       </c>
       <c r="K2451">
         <v>5</v>
@@ -95209,11 +95215,17 @@
       <c r="F2452" t="s">
         <v>167</v>
       </c>
+      <c r="G2452">
+        <v>72</v>
+      </c>
       <c r="H2452">
         <v>5</v>
       </c>
       <c r="I2452" t="s">
         <v>242</v>
+      </c>
+      <c r="J2452">
+        <v>59</v>
       </c>
       <c r="K2452">
         <v>55</v>
@@ -95234,6 +95246,30 @@
       </c>
       <c r="D2453">
         <v>63</v>
+      </c>
+      <c r="E2453">
+        <v>4</v>
+      </c>
+      <c r="F2453" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2453">
+        <v>76</v>
+      </c>
+      <c r="H2453">
+        <v>5</v>
+      </c>
+      <c r="I2453" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2453">
+        <v>59</v>
+      </c>
+      <c r="K2453">
+        <v>55</v>
+      </c>
+      <c r="L2453">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -95254,7 +95290,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G2402:G2450 F2387:F2452 H2423:H2452</xm:sqref>
+          <xm:sqref>F2387:F2453 G2402:G2453 H2423:H2453 K2453:L2453</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{D07094E1-B944-47E4-9ABF-B2075BEB07DF}">
@@ -95267,7 +95303,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J2402:J2450 I2387:I2452</xm:sqref>
+          <xm:sqref>I2387:I2453 J2402:J2453</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/notebooks/step04_FUHistory.xlsx
+++ b/notebooks/step04_FUHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Python_Madness_2024\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6029D7D-C266-4753-AAF2-A864AF27B5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B95A4F-F389-4559-A157-EE13D2039702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2625" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">step04_FUHistory!$A$1:$L$2422</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">step04_FUHistory!$A$1:$L$2453</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2038,8 +2038,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2438" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M2453" sqref="M2453"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -95273,7 +95274,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L2422" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L2453" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
   <extLst>
